--- a/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Management_Executive_Summary.xlsx
@@ -140,7 +140,7 @@
     <t>As of date:Dec,2022</t>
   </si>
   <si>
-    <t>Printed on:2023-02-09 14:08</t>
+    <t>Printed on:2023-02-10 14:32</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -6062,7 +6062,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.80%
-$1,136</a:t>
+$1,137</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6143,7 +6143,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.27%
-$378</a:t>
+$379</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6224,7 +6224,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>1.07%
-$1,514</a:t>
+$1,516</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6310,8 +6310,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>3.96%
-$5,602</a:t>
+            <a:t>3.97%
+$5,604</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6398,7 +6398,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.84%
-$1,192</a:t>
+$1,190</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6659,7 +6659,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.78%
-$1,100</a:t>
+$1,099</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6746,7 +6746,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.06%
-$92</a:t>
+$91</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="68">
-        <v>0.110181933708337</v>
+        <v>0.11018268964095</v>
       </c>
       <c r="O25" s="48"/>
       <c r="P25" s="68">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="68">
-        <v>0.00295457293007446</v>
+        <v>0.00295119505621494</v>
       </c>
       <c r="O26" s="48"/>
       <c r="P26" s="68">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="68">
-        <v>0.00462095206263645</v>
+        <v>0.00462235370250532</v>
       </c>
       <c r="O27" s="48"/>
       <c r="P27" s="68">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="M28" s="47"/>
       <c r="N28" s="68">
-        <v>0.000425458501930719</v>
+        <v>0.000426678803308199</v>
       </c>
       <c r="O28" s="48"/>
       <c r="P28" s="68">
@@ -9909,16 +9909,16 @@
         <v>-0.0790213723284589</v>
       </c>
       <c r="O46" s="73">
-        <v>0.0509991889753511</v>
+        <v>0.0510444982208855</v>
       </c>
       <c r="P46" s="73">
-        <v>0.033973919875596</v>
+        <v>0.0340174276673517</v>
       </c>
       <c r="Q46" s="73">
-        <v>0.0258056925573926</v>
+        <v>0.0258439252916966</v>
       </c>
       <c r="R46" s="73">
-        <v>0.025722927902723</v>
+        <v>0.0257595709597618</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="M47" s="66"/>
       <c r="N47" s="73">
-        <v>0.0350538132160617</v>
+        <v>0.0350540215252864</v>
       </c>
       <c r="O47" s="73">
         <v>0</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="M48" s="66"/>
       <c r="N48" s="73">
-        <v>-0.00605759682224429</v>
+        <v>-0.00605739821251241</v>
       </c>
       <c r="O48" s="73">
         <v>0</v>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="M49" s="66"/>
       <c r="N49" s="73">
-        <v>-0.309856102797961</v>
+        <v>-0.309856122576091</v>
       </c>
       <c r="O49" s="73">
         <v>0</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="M51" s="66"/>
       <c r="N51" s="73">
-        <v>-0.062761604115515</v>
+        <v>-0.0627616119100511</v>
       </c>
       <c r="O51" s="73">
         <v>0</v>
@@ -10209,19 +10209,19 @@
         <v>13100</v>
       </c>
       <c r="F55" s="72">
-        <v>13228.6530400932</v>
+        <v>13228.742366378</v>
       </c>
       <c r="G55" s="72">
-        <v>13568.214516526601</v>
+        <v>13568.598339558801</v>
       </c>
       <c r="H55" s="72">
-        <v>13857.6449820861</v>
+        <v>13858.3446171692</v>
       </c>
       <c r="I55" s="72">
-        <v>14099.2182964724</v>
+        <v>14100.2295742386</v>
       </c>
       <c r="J55" s="72">
-        <v>13688.432708794599</v>
+        <v>13688.978724336199</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="47" t="s">
@@ -10232,7 +10232,7 @@
         <v>113</v>
       </c>
       <c r="O55" s="72">
-        <v>24686.7027916033</v>
+        <v>24690.073260616</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>114</v>
@@ -10252,22 +10252,22 @@
         <v>101646</v>
       </c>
       <c r="E56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="F56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="G56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="H56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="I56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="J56" s="72">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="47" t="s">
@@ -10278,7 +10278,7 @@
         <v>113</v>
       </c>
       <c r="O56" s="75">
-        <v>4.67110368576127</v>
+        <v>4.66836062820837</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>114</v>
@@ -10298,22 +10298,22 @@
         <v>98813</v>
       </c>
       <c r="E57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="F57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="G57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="H57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="I57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="J57" s="72">
-        <v>120243</v>
+        <v>120242.999</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="47" t="s">
@@ -10324,7 +10324,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="68">
-        <v>0.175412243670937</v>
+        <v>0.17543308486614</v>
       </c>
       <c r="P57" s="76" t="s">
         <v>118</v>
@@ -10344,22 +10344,22 @@
         <v>142536</v>
       </c>
       <c r="E58" s="72">
-        <v>140622.735476317</v>
+        <v>140622.752</v>
       </c>
       <c r="F58" s="72">
-        <v>140751.38851641</v>
+        <v>140751.494366378</v>
       </c>
       <c r="G58" s="72">
-        <v>141090.949992843</v>
+        <v>141091.350339559</v>
       </c>
       <c r="H58" s="72">
-        <v>141380.380458403</v>
+        <v>141381.09661717</v>
       </c>
       <c r="I58" s="72">
-        <v>141621.953772789</v>
+        <v>141622.98157423898</v>
       </c>
       <c r="J58" s="72">
-        <v>141211.168185111</v>
+        <v>141211.730724336</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="47" t="s">
@@ -10370,7 +10370,7 @@
         <v>114</v>
       </c>
       <c r="O58" s="68">
-        <v>0.069107962235365</v>
+        <v>0.0691119416445477</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>114</v>
@@ -10390,22 +10390,22 @@
         <v>140751</v>
       </c>
       <c r="E59" s="72">
-        <v>136217.735476317</v>
+        <v>136217.752</v>
       </c>
       <c r="F59" s="72">
-        <v>136346.38851641</v>
+        <v>136346.494366378</v>
       </c>
       <c r="G59" s="72">
-        <v>136685.949992843</v>
+        <v>136686.350339559</v>
       </c>
       <c r="H59" s="72">
-        <v>136975.380458403</v>
+        <v>136976.09661717</v>
       </c>
       <c r="I59" s="72">
-        <v>137216.953772789</v>
+        <v>137217.98157423898</v>
       </c>
       <c r="J59" s="72">
-        <v>136806.168185111</v>
+        <v>136806.730724336</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="47" t="s">
@@ -10416,7 +10416,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="68">
-        <v>0.0430980873185049</v>
+        <v>0.0431157477391154</v>
       </c>
       <c r="P59" s="76" t="s">
         <v>118</v>
@@ -10439,19 +10439,19 @@
         <v>16250</v>
       </c>
       <c r="F60" s="72">
-        <v>16378.653040092999</v>
+        <v>16378.742366378</v>
       </c>
       <c r="G60" s="72">
-        <v>16718.2145165263</v>
+        <v>16718.5983395587</v>
       </c>
       <c r="H60" s="72">
-        <v>17007.644982086</v>
+        <v>17008.3446171697</v>
       </c>
       <c r="I60" s="72">
-        <v>17249.2182964717</v>
+        <v>17250.2295742387</v>
       </c>
       <c r="J60" s="72">
-        <v>16838.4327087942</v>
+        <v>16838.9787243363</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="47" t="s">
@@ -10462,7 +10462,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="68">
-        <v>-0.0499840855492294</v>
+        <v>-0.0500038327141156</v>
       </c>
       <c r="P60" s="76" t="s">
         <v>118</v>
@@ -10485,19 +10485,19 @@
         <v>1689</v>
       </c>
       <c r="F61" s="72">
-        <v>1692.0949429564398</v>
+        <v>1692.1105284939101</v>
       </c>
       <c r="G61" s="72">
-        <v>1693.76640511092</v>
+        <v>1693.8134130987398</v>
       </c>
       <c r="H61" s="72">
-        <v>1704.2960013904599</v>
+        <v>1704.36675963478</v>
       </c>
       <c r="I61" s="72">
-        <v>1703.75834250831</v>
+        <v>1703.83545298323</v>
       </c>
       <c r="J61" s="72">
-        <v>6793.91569196613</v>
+        <v>6794.1261542106595</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="47" t="s">
@@ -10508,7 +10508,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="68">
-        <v>-0.104730579047761</v>
+        <v>-0.104776741352632</v>
       </c>
       <c r="P61" s="76" t="s">
         <v>118</v>
@@ -10531,19 +10531,19 @@
         <v>216</v>
       </c>
       <c r="F62" s="72">
-        <v>188.236567810049</v>
+        <v>187.881097147783</v>
       </c>
       <c r="G62" s="72">
-        <v>263.013066252976</v>
+        <v>262.639883643089</v>
       </c>
       <c r="H62" s="72">
-        <v>338.306783286115</v>
+        <v>337.956587920571</v>
       </c>
       <c r="I62" s="72">
-        <v>402.19484814192697</v>
+        <v>401.867459941974</v>
       </c>
       <c r="J62" s="72">
-        <v>1191.75126549107</v>
+        <v>1190.34502865342</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="47" t="s">
@@ -10554,7 +10554,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="68">
-        <v>-0.166379821983069</v>
+        <v>-0.166440467163279</v>
       </c>
       <c r="P62" s="76" t="s">
         <v>118</v>
@@ -10577,19 +10577,19 @@
         <v>1473</v>
       </c>
       <c r="F63" s="72">
-        <v>1503.85837514639</v>
+        <v>1504.22943134612</v>
       </c>
       <c r="G63" s="72">
-        <v>1430.75333885795</v>
+        <v>1431.17352945565</v>
       </c>
       <c r="H63" s="72">
-        <v>1365.98921810434</v>
+        <v>1366.41017171421</v>
       </c>
       <c r="I63" s="72">
-        <v>1301.56349436638</v>
+        <v>1301.96799304126</v>
       </c>
       <c r="J63" s="72">
-        <v>5602.16442647506</v>
+        <v>5603.78112555724</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="47" t="s">
@@ -10600,7 +10600,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="68">
-        <v>-0.228685861410605</v>
+        <v>-0.228751582644323</v>
       </c>
       <c r="P63" s="76" t="s">
         <v>118</v>
@@ -10623,19 +10623,19 @@
         <v>171</v>
       </c>
       <c r="F64" s="72">
-        <v>361.46443508048696</v>
+        <v>361.74278163735704</v>
       </c>
       <c r="G64" s="72">
-        <v>306.624938650625</v>
+        <v>306.94014321042704</v>
       </c>
       <c r="H64" s="72">
-        <v>258.042351880034</v>
+        <v>258.358128810836</v>
       </c>
       <c r="I64" s="72">
-        <v>209.713612489503</v>
+        <v>210.017045806315</v>
       </c>
       <c r="J64" s="72">
-        <v>1135.8453381006502</v>
+        <v>1137.05809946494</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="47" t="s">
@@ -10699,7 +10699,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="68">
-        <v>-0.0831664613020303</v>
+        <v>-0.0831690682530268</v>
       </c>
       <c r="P65" s="76" t="s">
         <v>118</v>
@@ -11332,10 +11332,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="3">
-        <v>0.558545191301632</v>
+        <v>0.558629075077603</v>
       </c>
       <c r="C2" s="3">
-        <v>0.873014780131948</v>
+        <v>0.873010916823471</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11346,10 +11346,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>1.12988922567944</v>
+        <v>1.12990322877871</v>
       </c>
       <c r="C3" s="3">
-        <v>0.996840540477282</v>
+        <v>0.996835584305405</v>
       </c>
       <c r="D3" s="3">
         <v>12</v>
@@ -11360,10 +11360,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="3">
-        <v>1.29556539816932</v>
+        <v>1.29556240919319</v>
       </c>
       <c r="C4" s="3">
-        <v>1.09558499106539</v>
+        <v>1.09558697347087</v>
       </c>
       <c r="D4" s="3">
         <v>11</v>
@@ -11374,10 +11374,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="3">
-        <v>1.28757598161886</v>
+        <v>1.2875701627367</v>
       </c>
       <c r="C5" s="3">
-        <v>1.51098746313949</v>
+        <v>1.51098840930809</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
@@ -11388,10 +11388,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="3">
-        <v>1.15415023995078</v>
+        <v>1.15416622238456</v>
       </c>
       <c r="C6" s="3">
-        <v>0.997585498037507</v>
+        <v>0.997580077927072</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -12066,22 +12066,22 @@
         <v>202212</v>
       </c>
       <c r="B9" s="3">
-        <v>106497</v>
+        <v>106497.017</v>
       </c>
       <c r="C9" s="3">
-        <v>4460</v>
+        <v>4460.018</v>
       </c>
       <c r="D9" s="3">
-        <v>67968</v>
+        <v>67968.002</v>
       </c>
       <c r="E9" s="3">
-        <v>14828</v>
+        <v>14827.999</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>3072</v>
+        <v>3072.002</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>6160</v>
+        <v>6159.994</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>6523</v>
+        <v>6522.998</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>3486</v>
+        <v>3486.004</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -12225,7 +12225,7 @@
         <v>202212</v>
       </c>
       <c r="B8" s="3">
-        <v>1518</v>
+        <v>1518.017</v>
       </c>
     </row>
     <row r="9">

--- a/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Management_Executive_Summary.xlsx
@@ -140,7 +140,7 @@
     <t>As of date:Dec,2022</t>
   </si>
   <si>
-    <t>Printed on:2023-02-10 14:32</t>
+    <t>Printed on:2023-02-14 16:47</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -6062,7 +6062,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.80%
-$1,137</a:t>
+$1,136</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6143,7 +6143,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.27%
-$379</a:t>
+$378</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6224,7 +6224,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>1.07%
-$1,516</a:t>
+$1,514</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6310,8 +6310,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>3.97%
-$5,604</a:t>
+            <a:t>3.96%
+$5,602</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6398,7 +6398,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.84%
-$1,190</a:t>
+$1,192</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6659,7 +6659,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.78%
-$1,099</a:t>
+$1,100</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6746,7 +6746,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.06%
-$91</a:t>
+$92</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9909,16 +9909,16 @@
         <v>-0.0790213723284589</v>
       </c>
       <c r="O46" s="73">
-        <v>0.0510444982208855</v>
+        <v>0.0509991889753511</v>
       </c>
       <c r="P46" s="73">
-        <v>0.0340174276673517</v>
+        <v>0.033973919875596</v>
       </c>
       <c r="Q46" s="73">
-        <v>0.0258439252916966</v>
+        <v>0.0258056925573926</v>
       </c>
       <c r="R46" s="73">
-        <v>0.0257595709597618</v>
+        <v>0.025722927902723</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="M47" s="66"/>
       <c r="N47" s="73">
-        <v>0.0350540215252864</v>
+        <v>0.0350538132160617</v>
       </c>
       <c r="O47" s="73">
         <v>0</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="M48" s="66"/>
       <c r="N48" s="73">
-        <v>-0.00605739821251241</v>
+        <v>-0.00605759682224429</v>
       </c>
       <c r="O48" s="73">
         <v>0</v>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="M49" s="66"/>
       <c r="N49" s="73">
-        <v>-0.309856122576091</v>
+        <v>-0.309856102797961</v>
       </c>
       <c r="O49" s="73">
         <v>0</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="M51" s="66"/>
       <c r="N51" s="73">
-        <v>-0.0627616119100511</v>
+        <v>-0.062761604115515</v>
       </c>
       <c r="O51" s="73">
         <v>0</v>
@@ -10209,19 +10209,19 @@
         <v>13100</v>
       </c>
       <c r="F55" s="72">
-        <v>13228.742366378</v>
+        <v>13228.6530400932</v>
       </c>
       <c r="G55" s="72">
-        <v>13568.598339558801</v>
+        <v>13568.214516526601</v>
       </c>
       <c r="H55" s="72">
-        <v>13858.3446171692</v>
+        <v>13857.6449820861</v>
       </c>
       <c r="I55" s="72">
-        <v>14100.2295742386</v>
+        <v>14099.2182964724</v>
       </c>
       <c r="J55" s="72">
-        <v>13688.978724336199</v>
+        <v>13688.432708794599</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="47" t="s">
@@ -10232,7 +10232,7 @@
         <v>113</v>
       </c>
       <c r="O55" s="72">
-        <v>24690.073260616</v>
+        <v>24686.7027916033</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>114</v>
@@ -10252,22 +10252,22 @@
         <v>101646</v>
       </c>
       <c r="E56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="F56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="G56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="H56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="I56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="J56" s="72">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="47" t="s">
@@ -10278,7 +10278,7 @@
         <v>113</v>
       </c>
       <c r="O56" s="75">
-        <v>4.66836062820837</v>
+        <v>4.67110368576127</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>114</v>
@@ -10298,22 +10298,22 @@
         <v>98813</v>
       </c>
       <c r="E57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="F57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="G57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="H57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="I57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="J57" s="72">
-        <v>120242.999</v>
+        <v>120243</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="47" t="s">
@@ -10324,7 +10324,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="68">
-        <v>0.17543308486614</v>
+        <v>0.175412243670937</v>
       </c>
       <c r="P57" s="76" t="s">
         <v>118</v>
@@ -10344,22 +10344,22 @@
         <v>142536</v>
       </c>
       <c r="E58" s="72">
-        <v>140622.752</v>
+        <v>140622.735476317</v>
       </c>
       <c r="F58" s="72">
-        <v>140751.494366378</v>
+        <v>140751.38851641</v>
       </c>
       <c r="G58" s="72">
-        <v>141091.350339559</v>
+        <v>141090.949992843</v>
       </c>
       <c r="H58" s="72">
-        <v>141381.09661717</v>
+        <v>141380.380458403</v>
       </c>
       <c r="I58" s="72">
-        <v>141622.98157423898</v>
+        <v>141621.953772789</v>
       </c>
       <c r="J58" s="72">
-        <v>141211.730724336</v>
+        <v>141211.168185111</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="47" t="s">
@@ -10370,7 +10370,7 @@
         <v>114</v>
       </c>
       <c r="O58" s="68">
-        <v>0.0691119416445477</v>
+        <v>0.069107962235365</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>114</v>
@@ -10390,22 +10390,22 @@
         <v>140751</v>
       </c>
       <c r="E59" s="72">
-        <v>136217.752</v>
+        <v>136217.735476317</v>
       </c>
       <c r="F59" s="72">
-        <v>136346.494366378</v>
+        <v>136346.38851641</v>
       </c>
       <c r="G59" s="72">
-        <v>136686.350339559</v>
+        <v>136685.949992843</v>
       </c>
       <c r="H59" s="72">
-        <v>136976.09661717</v>
+        <v>136975.380458403</v>
       </c>
       <c r="I59" s="72">
-        <v>137217.98157423898</v>
+        <v>137216.953772789</v>
       </c>
       <c r="J59" s="72">
-        <v>136806.730724336</v>
+        <v>136806.168185111</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="47" t="s">
@@ -10416,7 +10416,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="68">
-        <v>0.0431157477391154</v>
+        <v>0.0430980873185049</v>
       </c>
       <c r="P59" s="76" t="s">
         <v>118</v>
@@ -10439,19 +10439,19 @@
         <v>16250</v>
       </c>
       <c r="F60" s="72">
-        <v>16378.742366378</v>
+        <v>16378.653040092999</v>
       </c>
       <c r="G60" s="72">
-        <v>16718.5983395587</v>
+        <v>16718.2145165263</v>
       </c>
       <c r="H60" s="72">
-        <v>17008.3446171697</v>
+        <v>17007.644982086</v>
       </c>
       <c r="I60" s="72">
-        <v>17250.2295742387</v>
+        <v>17249.2182964717</v>
       </c>
       <c r="J60" s="72">
-        <v>16838.9787243363</v>
+        <v>16838.4327087942</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="47" t="s">
@@ -10462,7 +10462,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="68">
-        <v>-0.0500038327141156</v>
+        <v>-0.0499840855492294</v>
       </c>
       <c r="P60" s="76" t="s">
         <v>118</v>
@@ -10485,19 +10485,19 @@
         <v>1689</v>
       </c>
       <c r="F61" s="72">
-        <v>1692.1105284939101</v>
+        <v>1692.0949429564398</v>
       </c>
       <c r="G61" s="72">
-        <v>1693.8134130987398</v>
+        <v>1693.76640511092</v>
       </c>
       <c r="H61" s="72">
-        <v>1704.36675963478</v>
+        <v>1704.2960013904599</v>
       </c>
       <c r="I61" s="72">
-        <v>1703.83545298323</v>
+        <v>1703.75834250831</v>
       </c>
       <c r="J61" s="72">
-        <v>6794.1261542106595</v>
+        <v>6793.91569196613</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="47" t="s">
@@ -10508,7 +10508,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="68">
-        <v>-0.104776741352632</v>
+        <v>-0.104730579047761</v>
       </c>
       <c r="P61" s="76" t="s">
         <v>118</v>
@@ -10531,19 +10531,19 @@
         <v>216</v>
       </c>
       <c r="F62" s="72">
-        <v>187.881097147783</v>
+        <v>188.236567810049</v>
       </c>
       <c r="G62" s="72">
-        <v>262.639883643089</v>
+        <v>263.013066252976</v>
       </c>
       <c r="H62" s="72">
-        <v>337.956587920571</v>
+        <v>338.306783286115</v>
       </c>
       <c r="I62" s="72">
-        <v>401.867459941974</v>
+        <v>402.19484814192697</v>
       </c>
       <c r="J62" s="72">
-        <v>1190.34502865342</v>
+        <v>1191.75126549107</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="47" t="s">
@@ -10554,7 +10554,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="68">
-        <v>-0.166440467163279</v>
+        <v>-0.166379821983069</v>
       </c>
       <c r="P62" s="76" t="s">
         <v>118</v>
@@ -10577,19 +10577,19 @@
         <v>1473</v>
       </c>
       <c r="F63" s="72">
-        <v>1504.22943134612</v>
+        <v>1503.85837514639</v>
       </c>
       <c r="G63" s="72">
-        <v>1431.17352945565</v>
+        <v>1430.75333885795</v>
       </c>
       <c r="H63" s="72">
-        <v>1366.41017171421</v>
+        <v>1365.98921810434</v>
       </c>
       <c r="I63" s="72">
-        <v>1301.96799304126</v>
+        <v>1301.56349436638</v>
       </c>
       <c r="J63" s="72">
-        <v>5603.78112555724</v>
+        <v>5602.16442647506</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="47" t="s">
@@ -10600,7 +10600,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="68">
-        <v>-0.228751582644323</v>
+        <v>-0.228685861410605</v>
       </c>
       <c r="P63" s="76" t="s">
         <v>118</v>
@@ -10623,19 +10623,19 @@
         <v>171</v>
       </c>
       <c r="F64" s="72">
-        <v>361.74278163735704</v>
+        <v>361.46443508048696</v>
       </c>
       <c r="G64" s="72">
-        <v>306.94014321042704</v>
+        <v>306.624938650625</v>
       </c>
       <c r="H64" s="72">
-        <v>258.358128810836</v>
+        <v>258.042351880034</v>
       </c>
       <c r="I64" s="72">
-        <v>210.017045806315</v>
+        <v>209.713612489503</v>
       </c>
       <c r="J64" s="72">
-        <v>1137.05809946494</v>
+        <v>1135.8453381006502</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="47" t="s">
@@ -10699,7 +10699,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="68">
-        <v>-0.0831690682530268</v>
+        <v>-0.0831664613020303</v>
       </c>
       <c r="P65" s="76" t="s">
         <v>118</v>
@@ -11332,10 +11332,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="3">
-        <v>0.558629075077603</v>
+        <v>0.558545191301632</v>
       </c>
       <c r="C2" s="3">
-        <v>0.873010916823471</v>
+        <v>0.873014780131948</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11346,10 +11346,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>1.12990322877871</v>
+        <v>1.12988922567944</v>
       </c>
       <c r="C3" s="3">
-        <v>0.996835584305405</v>
+        <v>0.996840540477282</v>
       </c>
       <c r="D3" s="3">
         <v>12</v>
@@ -11360,10 +11360,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="3">
-        <v>1.29556240919319</v>
+        <v>1.29556539816932</v>
       </c>
       <c r="C4" s="3">
-        <v>1.09558697347087</v>
+        <v>1.09558499106539</v>
       </c>
       <c r="D4" s="3">
         <v>11</v>
@@ -11374,10 +11374,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="3">
-        <v>1.2875701627367</v>
+        <v>1.28757598161886</v>
       </c>
       <c r="C5" s="3">
-        <v>1.51098840930809</v>
+        <v>1.51098746313949</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
@@ -11388,10 +11388,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="3">
-        <v>1.15416622238456</v>
+        <v>1.15415023995078</v>
       </c>
       <c r="C6" s="3">
-        <v>0.997580077927072</v>
+        <v>0.997585498037507</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -12066,22 +12066,22 @@
         <v>202212</v>
       </c>
       <c r="B9" s="3">
-        <v>106497.017</v>
+        <v>106497</v>
       </c>
       <c r="C9" s="3">
-        <v>4460.018</v>
+        <v>4460</v>
       </c>
       <c r="D9" s="3">
-        <v>67968.002</v>
+        <v>67968</v>
       </c>
       <c r="E9" s="3">
-        <v>14827.999</v>
+        <v>14828</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>3072.002</v>
+        <v>3072</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>6159.994</v>
+        <v>6160</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>6522.998</v>
+        <v>6523</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>3486.004</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1">
@@ -12225,7 +12225,7 @@
         <v>202212</v>
       </c>
       <c r="B8" s="3">
-        <v>1518.017</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="9">
